--- a/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>132,0%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>132,0%</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,39</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,73</t>
+          <t>-1,06; 3,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>40,89%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,71%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 3,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,0; 0,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>40,89%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-45,71%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,18</t>
+          <t>-2,58; 3,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,85</t>
+          <t>0,75; 6,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 0,0</t>
+          <t>-20,19; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,79</t>
+          <t>0,0; 6,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 3,09</t>
+          <t>-1,05; 3,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 3,18</t>
+          <t>-3,13; 3,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,0</t>
+          <t>-3,72; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 0,85</t>
+          <t>-3,08; 0,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,0</t>
+          <t>-4,17; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,39</t>
+          <t>-2,69; 3,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,73</t>
+          <t>0,73; 6,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,0</t>
+          <t>-1,19; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,42</t>
+          <t>-0,72; 1,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,1</t>
+          <t>-0,38; 0,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,21</t>
+          <t>0,04; 2,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,95; —</t>
+          <t>-79,79; 850,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,74; —</t>
+          <t>-44,8; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 0,0</t>
+          <t>-19,6; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,97</t>
+          <t>0,0; 6,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,06</t>
+          <t>-1,3; 2,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,09</t>
+          <t>-2,69; 3,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,0</t>
+          <t>-5,1; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 0,81</t>
+          <t>-3,24; 0,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 0,0</t>
+          <t>-3,85; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,54</t>
+          <t>-2,23; 3,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,74</t>
+          <t>0,75; 6,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 0,0</t>
+          <t>-1,2; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,48</t>
+          <t>-0,76; 1,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,94</t>
+          <t>-0,38; 1,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 2,41</t>
+          <t>-0,04; 2,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,79; 850,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,8; —</t>
+          <t>-44,85; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C06-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 0,0</t>
+          <t>-3,26; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>91,13%</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,61</t>
+          <t>-1,6; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>40,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>132,0%</t>
+          <t>-54,64%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>-3,19; 3,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>-4,52; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 2,99</t>
+          <t>-3,52; 0,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>40,89%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-45,71%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,3</t>
+          <t>-2,58; 3,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,81</t>
+          <t>0,74; 6,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,22 +1020,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1045,17 +1045,17 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>50,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>199,63%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,0</t>
+          <t>-1,12; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 3,44</t>
+          <t>-0,69; 1,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 1,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,54</t>
+          <t>-0,18; 2,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,95; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,119 +1103,19 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,24; —</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,34</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,05</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>50,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>101,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>256,53%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 0,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 1,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,38; 1,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-0,04; 2,32</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-44,85; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
